--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H2">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>107.5891419118966</v>
+        <v>313.735695814094</v>
       </c>
       <c r="R2">
-        <v>968.3022772070699</v>
+        <v>2823.621262326846</v>
       </c>
       <c r="S2">
-        <v>0.2551012407202946</v>
+        <v>0.3905769093634664</v>
       </c>
       <c r="T2">
-        <v>0.2551012407202946</v>
+        <v>0.3905769093634664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H3">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>29.32584038586221</v>
+        <v>46.92093707126001</v>
       </c>
       <c r="R3">
-        <v>263.93256347276</v>
+        <v>422.28843364134</v>
       </c>
       <c r="S3">
-        <v>0.06953358057009987</v>
+        <v>0.05841297254421998</v>
       </c>
       <c r="T3">
-        <v>0.06953358057009987</v>
+        <v>0.05841297254421998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H4">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>14.61694540827155</v>
+        <v>15.186708096144</v>
       </c>
       <c r="R4">
-        <v>131.552508674444</v>
+        <v>136.680372865296</v>
       </c>
       <c r="S4">
-        <v>0.03465778091477255</v>
+        <v>0.01890628828895469</v>
       </c>
       <c r="T4">
-        <v>0.03465778091477255</v>
+        <v>0.01890628828895469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H5">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I5">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J5">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>63.63172427295088</v>
+        <v>84.37800384016401</v>
       </c>
       <c r="R5">
-        <v>572.6855184565579</v>
+        <v>759.4020345614762</v>
       </c>
       <c r="S5">
-        <v>0.1508751861269984</v>
+        <v>0.1050441514875575</v>
       </c>
       <c r="T5">
-        <v>0.1508751861269984</v>
+        <v>0.1050441514875575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>81.60884834993999</v>
+        <v>148.736147734248</v>
       </c>
       <c r="R6">
-        <v>734.47963514946</v>
+        <v>1338.625329608232</v>
       </c>
       <c r="S6">
-        <v>0.1935001813182233</v>
+        <v>0.1851651108488905</v>
       </c>
       <c r="T6">
-        <v>0.1935001813182233</v>
+        <v>0.1851651108488905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>22.24432705992</v>
@@ -883,10 +883,10 @@
         <v>200.19894353928</v>
       </c>
       <c r="S7">
-        <v>0.05274282637759519</v>
+        <v>0.02769248329039955</v>
       </c>
       <c r="T7">
-        <v>0.05274282637759519</v>
+        <v>0.02769248329039955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.739604</v>
       </c>
       <c r="I8">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J8">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>11.087290594248</v>
+        <v>7.199730502848</v>
       </c>
       <c r="R8">
-        <v>99.785615348232</v>
+        <v>64.797574525632</v>
       </c>
       <c r="S8">
-        <v>0.02628872706443967</v>
+        <v>0.008963112981949442</v>
       </c>
       <c r="T8">
-        <v>0.02628872706443967</v>
+        <v>0.008963112981949441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.739604</v>
       </c>
       <c r="I9">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J9">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>48.266132103636</v>
+        <v>40.00201256068799</v>
       </c>
       <c r="R9">
-        <v>434.395188932724</v>
+        <v>360.018113046192</v>
       </c>
       <c r="S9">
-        <v>0.1144423123523928</v>
+        <v>0.0497994415131203</v>
       </c>
       <c r="T9">
-        <v>0.1144423123523928</v>
+        <v>0.0497994415131203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H10">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>21.69172949806</v>
+        <v>85.11694352086933</v>
       </c>
       <c r="R10">
-        <v>195.22556548254</v>
+        <v>766.052491687824</v>
       </c>
       <c r="S10">
-        <v>0.05143257962644134</v>
+        <v>0.105964074787796</v>
       </c>
       <c r="T10">
-        <v>0.05143257962644132</v>
+        <v>0.105964074787796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H11">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I11">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J11">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>5.912568737413333</v>
+        <v>12.72971741477333</v>
       </c>
       <c r="R11">
-        <v>53.21311863672</v>
+        <v>114.56745673296</v>
       </c>
       <c r="S11">
-        <v>0.01401910633317717</v>
+        <v>0.01584752309433929</v>
       </c>
       <c r="T11">
-        <v>0.01401910633317716</v>
+        <v>0.0158475230943393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H12">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I12">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J12">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>2.947015100685334</v>
+        <v>4.120175652736001</v>
       </c>
       <c r="R12">
-        <v>26.523135906168</v>
+        <v>37.081580874624</v>
       </c>
       <c r="S12">
-        <v>0.006987575095839147</v>
+        <v>0.005129303085211565</v>
       </c>
       <c r="T12">
-        <v>0.006987575095839145</v>
+        <v>0.005129303085211565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H13">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I13">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J13">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>12.82919564089734</v>
+        <v>22.89187326494934</v>
       </c>
       <c r="R13">
-        <v>115.462760768076</v>
+        <v>206.026859384544</v>
       </c>
       <c r="S13">
-        <v>0.03041890349972596</v>
+        <v>0.02849862871409487</v>
       </c>
       <c r="T13">
-        <v>0.03041890349972595</v>
+        <v>0.02849862871409488</v>
       </c>
     </row>
   </sheetData>
